--- a/BackEnd/Documentation.xlsx
+++ b/BackEnd/Documentation.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
+    <sheet name="Charts" sheetId="2" r:id="rId2"/>
+    <sheet name="Misc" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="88">
   <si>
     <t>Name</t>
   </si>
@@ -50,7 +52,7 @@
     <t>Holds basic info for all users</t>
   </si>
   <si>
-    <t>userData_select</t>
+    <t>userData</t>
   </si>
   <si>
     <t>headers=
@@ -70,27 +72,10 @@
 ]</t>
   </si>
   <si>
-    <t>userData_insert</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
     <t>GET</t>
-  </si>
-  <si>
-    <t>body = 
-[  
-   {  
-      "id":%d,
-      "Name":%s,
-      "Age":%d,
-      "Title":%s,
-      "OverallCondition":%d,
-      "RecommendedCalories":%f,
-      "picture_small":%s,
-      "picture_big":%s   }
-]</t>
   </si>
   <si>
     <t>{
@@ -111,24 +96,6 @@
     <t>Holds calories inputs</t>
   </si>
   <si>
-    <t>userData_calories_select</t>
-  </si>
-  <si>
-    <t>userData_calories_insert</t>
-  </si>
-  <si>
-    <t>body = 
-[  
-   {  
-      "id":1,
-      "UserId":1,
-      "CaloriesToBeBurned":1000,
-      "CaloriesBalance":1500,
-      "Timestamp":"2016-04-18T17:48:47.000Z"
-   }
-]</t>
-  </si>
-  <si>
     <t>[  
    {  
       "id":1,
@@ -138,6 +105,505 @@
       "Timestamp":"2016-04-18T17:48:47.000Z"
    },
 {…}
+]</t>
+  </si>
+  <si>
+    <t>adept-adeptserver.rhcloud.com/userData_select</t>
+  </si>
+  <si>
+    <t>adept-adeptserver.rhcloud.com/userData_insert</t>
+  </si>
+  <si>
+    <t>adept-adeptserver.rhcloud.com/userData_calories_select</t>
+  </si>
+  <si>
+    <t>adept-adeptserver.rhcloud.com/userData_calories_insert</t>
+  </si>
+  <si>
+    <t>userdata_height</t>
+  </si>
+  <si>
+    <t>userdata_musclestrength</t>
+  </si>
+  <si>
+    <t>userData_RestingHeartRate</t>
+  </si>
+  <si>
+    <t>userdata_weight</t>
+  </si>
+  <si>
+    <t>userdata_wristbonestructure</t>
+  </si>
+  <si>
+    <t>userexerciselog</t>
+  </si>
+  <si>
+    <t>recommendedexercises</t>
+  </si>
+  <si>
+    <t>Holds height inputs</t>
+  </si>
+  <si>
+    <t>Holds muscle strength inputs</t>
+  </si>
+  <si>
+    <t>Holds resting heart rate inputs</t>
+  </si>
+  <si>
+    <t>Holds weight inputs</t>
+  </si>
+  <si>
+    <t>Holds wbs inputs</t>
+  </si>
+  <si>
+    <t>Holds user exercise log</t>
+  </si>
+  <si>
+    <t>Holds recommended exercises for users</t>
+  </si>
+  <si>
+    <t>adept-adeptserver.rhcloud.com/userData_height_select</t>
+  </si>
+  <si>
+    <t>adept-adeptserver.rhcloud.com/userData_height_insert</t>
+  </si>
+  <si>
+    <t>adept-adeptserver.rhcloud.com/userdata_musclestrength_select</t>
+  </si>
+  <si>
+    <t>adept-adeptserver.rhcloud.com/userdata_musclestrength_insert</t>
+  </si>
+  <si>
+    <t>adept-adeptserver.rhcloud.com/userData_RestingHeartRate_select</t>
+  </si>
+  <si>
+    <t>adept-adeptserver.rhcloud.com/userData_RestingHeartRate_insert</t>
+  </si>
+  <si>
+    <t>adept-adeptserver.rhcloud.com/userdata_weight_select</t>
+  </si>
+  <si>
+    <t>adept-adeptserver.rhcloud.com/userdata_weight_insert</t>
+  </si>
+  <si>
+    <t>adept-adeptserver.rhcloud.com/userdata_wristbonestructure_select</t>
+  </si>
+  <si>
+    <t>adept-adeptserver.rhcloud.com/userdata_wristbonestructure_insert</t>
+  </si>
+  <si>
+    <t>adept-adeptserver.rhcloud.com/userexerciselog_select</t>
+  </si>
+  <si>
+    <t>adept-adeptserver.rhcloud.com/userexerciselog_insert</t>
+  </si>
+  <si>
+    <t>adept-adeptserver.rhcloud.com/recommendedexercises_select</t>
+  </si>
+  <si>
+    <t>adept-adeptserver.rhcloud.com/recommendedexercises_insert</t>
+  </si>
+  <si>
+    <t>[  
+   [  
+   {  
+      "id":1,
+      "UserID":null,
+      "Height":0,
+      "Timestamp":"2016-04-19T00:56:16.000Z"
+   },
+{…}
+]</t>
+  </si>
+  <si>
+    <t>[  
+   {  
+      "id":11,
+      "UserId":1,
+      "MuscleGroupId":1,
+      "AppliedForce":200,
+      "Timestamp":"2016-04-18T17:27:11.000Z"
+   },
+   {  
+      "id":12,
+      "UserId":1,
+      "MuscleGroupId":1,
+      "AppliedForce":300,
+      "Timestamp":"2016-04-18T17:27:23.000Z"
+   }
+]</t>
+  </si>
+  <si>
+    <t>[  
+   {  
+      "id":4,
+      "UserId":1,
+      "HeartRate":70,
+      "Timestamp":"2016-04-19T00:44:17.000Z"
+   },
+   {  
+      "id":3,
+      "UserId":1,
+      "HeartRate":61,
+      "Timestamp":"2016-04-19T00:44:28.000Z"
+   }
+]</t>
+  </si>
+  <si>
+    <t>[  
+   {  
+      "id":1,
+      "UserId":1,
+      "Timestamp":"2016-04-17T23:28:56.000Z",
+      "Weight":80
+   }
+]</t>
+  </si>
+  <si>
+    <t>body = 
+[  
+   {  
+      "Name":%s,
+      "Age":%d,
+      "Title":%s,
+      "OverallCondition":%d,
+      "RecommendedCalories":%f,
+      "picture_small":%s,
+      "picture_big":%s   }
+]</t>
+  </si>
+  <si>
+    <t>body = 
+[  
+   {  
+      "UserId":1,
+      "CaloriesToBeBurned":1000,
+      "CaloriesBalance":1500,
+      "Timestamp":"2016-04-18T17:48:47.000Z"
+   }
+]</t>
+  </si>
+  <si>
+    <t>body = 
+[  
+   {  
+      "UserID":null,
+      "Height":0,
+      "Timestamp":"2016-04-19T00:56:16.000Z"
+   }
+]</t>
+  </si>
+  <si>
+    <t>body = 
+[  
+{  
+      "UserId":1,
+      "MuscleGroupId":1,
+      "AppliedForce":200,
+      "Timestamp":"2016-04-18T17:27:11.000Z"
+   }
+]</t>
+  </si>
+  <si>
+    <t>body = 
+[  
+   {  
+      "UserId":1,
+      "Timestamp":"2016-04-17T23:28:56.000Z",
+      "Weight":80
+   }
+]</t>
+  </si>
+  <si>
+    <t>[  
+   {  
+      "id":1,
+      "UserId":2,
+      "WristCirc":20,
+      "Timestamp":"2016-04-19T00:30:38.000Z"
+   }
+,
+{…}
+]</t>
+  </si>
+  <si>
+    <t>body = 
+[  
+   {  
+      "UserId":2,
+      "WristCirc":20,
+      "Timestamp":"2016-04-19T00:30:38.000Z"
+   }
+]</t>
+  </si>
+  <si>
+    <t>body = 
+[  
+{  
+      "UserId":1,
+      "HeartRate":70,
+      "Timestamp":"2016-04-19T00:44:17.000Z"
+   }
+]</t>
+  </si>
+  <si>
+    <t>[  
+   {  
+      "id":1,
+      "Timestamp":"2016-04-21T05:48:07.000Z",
+      "ExersiceId":1,
+      "PowerCurveId":null,
+      "TotalForce":500,
+      "MaxForce":400,
+      "AvgHeartRate":100,
+      "DificultyLevel":"Medium",
+      "UserId":1,
+      "Duration":80,
+      "Precision":90,
+      "AverageForce":250
+   }
+]</t>
+  </si>
+  <si>
+    <t>body = 
+[  
+      "Timestamp":"2016-04-21T05:48:07.000Z",
+      "ExersiceId":1,
+      "PowerCurveId":null,
+      "TotalForce":500,
+      "MaxForce":400,
+      "AvgHeartRate":100,
+      "DificultyLevel":"Medium",
+      "UserId":1,
+      "Duration":80,
+      "Precision":90,
+      "AverageForce":250
+   }
+]</t>
+  </si>
+  <si>
+    <t>[  
+   {  
+      "id":1,
+      "UserId":1,
+      "ExerciseId":1
+   }
+]</t>
+  </si>
+  <si>
+    <t>body = 
+[  
+   {  
+      "UserId":1,
+      "ExerciseId":1
+   }
+]</t>
+  </si>
+  <si>
+    <t>Weight chart</t>
+  </si>
+  <si>
+    <t>adept-adeptserver.rhcloud.com/weightChart</t>
+  </si>
+  <si>
+    <t>headers=
+{'parameters': '[{"UserId": 1, "Points":5, "FromDate":"2016-04-18", "ToDate":"2016-04-22"}]]'</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "Weight": 81.05
+  },
+  {
+    "Weight": 81.25
+  },
+  {
+    "Weight": 81.45
+  },
+  {
+    "Weight": 81.6
+  },
+  {
+    "Weight": 81.75
+  }
+]</t>
+  </si>
+  <si>
+    <t>adept-adeptserver.rhcloud.com/msChart</t>
+  </si>
+  <si>
+    <t>Muscle strength chart</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "Muscle_strenght": 250
+  },
+  {
+    "Muscle_strenght": null
+  },
+  {
+    "Muscle_strenght": null
+  },
+  {
+    "Muscle_strenght": null
+  },
+  {
+    "Muscle_strenght": null
+  }
+]</t>
+  </si>
+  <si>
+    <t>adept-adeptserver.rhcloud.com/wbsChart</t>
+  </si>
+  <si>
+    <t>wrist bone structure chart</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "WristCirc": null
+  },
+  {
+    "WristCirc": null
+  },
+  {
+    "WristCirc": null
+  },
+  {
+    "WristCirc": null
+  },
+  {
+    "WristCirc": null
+  }
+]</t>
+  </si>
+  <si>
+    <t>adept-adeptserver.rhcloud.com/cbChart</t>
+  </si>
+  <si>
+    <t>Calories balance chart</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "CaloriesBalance": 1500
+  },
+  {
+    "CaloriesBalance": null
+  },
+  {
+    "CaloriesBalance": null
+  },
+  {
+    "CaloriesBalance": null
+  },
+  {
+    "CaloriesBalance": null
+  }
+]</t>
+  </si>
+  <si>
+    <t>resting heartrate chart</t>
+  </si>
+  <si>
+    <t>adept-adeptserver.rhcloud.com/rhChart</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "HeartRate": 65.5
+  },
+  {
+    "HeartRate": null
+  },
+  {
+    "HeartRate": null
+  },
+  {
+    "HeartRate": null
+  },
+  {
+    "HeartRate": null
+  }
+]</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>adept-adeptserver.rhcloud.com/users</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "id": 1,
+    "Name": "Borislav Filipov",
+    "picture_small": "http://i.imgur.com/VcgfWmD.png"
+  },
+  {
+    "id": 2,
+    "Name": "Ivo Zhulev",
+    "picture_small": "http://i.imgur.com/xIytOfI.jpg"
+  },
+  {
+    "id": 3,
+    "Name": "Martin Kuvandzhiev",
+    "picture_small": "http://i.imgur.com/HWg3X8T.jpg"
+  },
+  {
+    "id": 4,
+    "Name": "Peter Lazarov",
+    "picture_small": "http://i.imgur.com/A1d1yPg.jpg"
+  },
+  {
+    "id": 5,
+    "Name": "Evgeni Sabev",
+    "picture_small": "http://i.imgur.com/zWY916H.jpg"
+  },
+  {
+    "id": 6,
+    "Name": "Konstantin Jleibinkov",
+    "picture_small": "http://i.imgur.com/V9ftPuZ.jpg"
+  },
+  {
+    "id": 7,
+    "Name": "Teodora Malashevska",
+    "picture_small": "http://i.imgur.com/s9p6m4L.jpg"
+  },
+  {
+    "id": 8,
+    "Name": "Georgi Velev",
+    "picture_small": "http://i.imgur.com/9ViytcS.jpg"
+  }
+]</t>
+  </si>
+  <si>
+    <t>adept-adeptserver.rhcloud.com/userData</t>
+  </si>
+  <si>
+    <t>headers=
+{'parameters': '[{"UserId": 1}]'</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "UserId": 1,
+    "Name": "Borislav Filipov",
+    "Age": 21,
+    "Height": 192,
+    "Title": "",
+    "OverallCondition": 2,
+    "Weight": 81.9,
+    "avgForce": 250,
+    "WristCirc": null,
+    "CaloriesBalance": 1500,
+    "RestingHeartRate": 65.5,
+    "picture_big": "http://i.imgur.com/adPBkbc.png"
+  }
 ]</t>
   </si>
 </sst>
@@ -163,7 +629,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -248,20 +714,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -277,9 +777,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -290,6 +787,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,17 +1086,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="51.5703125" customWidth="1"/>
@@ -591,10 +1106,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -612,77 +1127,343 @@
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="195" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="6" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="F9" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>15</v>
+      <c r="E12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="4">
+  <mergeCells count="18">
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A6:A7"/>
@@ -691,4 +1472,216 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>